--- a/static/Transactions_Templete.xlsx
+++ b/static/Transactions_Templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mouaidnasab/Documents/personal projects/Finance App V.2/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mouaidnasab/Documents/personal projects/Family-Finance-System/Family-Finance-System/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633D0C4-4B0C-5545-9AA5-AB319763797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F71B9C-907C-5441-A286-E5B4D8C2F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{402D55FD-4260-CB47-A3A4-D0CE859A8B75}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20460" xr2:uid="{402D55FD-4260-CB47-A3A4-D0CE859A8B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions_Templete" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>payeer</t>
   </si>
   <si>
-    <t>paid_To</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
     <t>add your data</t>
+  </si>
+  <si>
+    <t>paid_to</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
     <tableColumn id="13" xr3:uid="{DC0C9EB5-8ECD-524D-8989-ACEE189A00A0}" name="account_name" dataDxfId="4"/>
     <tableColumn id="14" xr3:uid="{6E8F6362-C0C1-E343-88F1-ABC3C2D686CC}" name="currency" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{6891EB50-BB72-F447-A5A8-3F44D0B1C9B9}" name="payeer" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{32050739-1DC7-1143-9CF1-791CFFA3E1C4}" name="paid_To" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{32050739-1DC7-1143-9CF1-791CFFA3E1C4}" name="paid_to" dataDxfId="1"/>
     <tableColumn id="17" xr3:uid="{FF47D979-77E7-F84F-8881-E1E8DED5A480}" name="amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,116 +1295,116 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
